--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2867598.293435453</v>
+        <v>2971777.927886525</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8557641.841275435</v>
+        <v>8557641.841275437</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>77.9773651578025</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>215.2879627470497</v>
       </c>
       <c r="X4" t="n">
-        <v>63.36372471879493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>153.7283917236245</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>135.4970762621076</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>106.4735778903241</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>2.379113942662977</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>40.7069548508417</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.36917500886968</v>
+        <v>67.41794366332667</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>54.63637568893569</v>
       </c>
       <c r="D16" t="n">
-        <v>113.6427030833208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>157.1838954824118</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2527,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>249.4570359212145</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>57.65182679923964</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>96.04906679049552</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>198.5094282323944</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>21.69718571885174</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>37.41782514683995</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>148.2350264383957</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.1420382222378</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346629</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444124</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919558</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919558</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
@@ -4401,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>444.4359021818237</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>444.4359021818237</v>
+        <v>391.8273445118554</v>
       </c>
       <c r="X4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838974</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1089.848573898563</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878908</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>203.377850030272</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>203.377850030272</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025388</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="V7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="W7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="X7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.2677975281823</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>936.970515533955</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3078.509937780421</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2747.447050436851</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2394.678395166736</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5011820977084</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218342</v>
+        <v>661.1021886517519</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218342</v>
+        <v>661.1021886517519</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>661.1021886517519</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>661.1021886517519</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,10 +5056,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167292</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459586</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180517</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,58 +5430,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
         <v>484.8112968429803</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6245,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309963</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>943.510265746755</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3026.711098656041</v>
+        <v>1028.490320362745</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>859.5541374348384</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>709.4374980225026</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>561.5244044401095</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>414.6344569421991</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4490.318578426478</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>4201.243351770676</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>3946.558863564789</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>3657.141693527828</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>3429.152142629811</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y31" t="n">
-        <v>3208.359563486281</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2409.167300603654</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2226.312466258559</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2006.7110012815</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1717.635774625697</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1462.95128641981</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1173.53411638285</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>945.5445654848324</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>724.7519863413023</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2230.185029894889</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081858</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153951</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741615</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159222</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661312</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376192</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>1802.949169892209</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990606</v>
+        <v>1548.264681686322</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953645</v>
+        <v>1258.847511649361</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055628</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>112.6104454096921</v>
       </c>
       <c r="D16" t="n">
-        <v>34.97276993489153</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.72167599501793</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>2.680607402613504</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96364621897271</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.47507150177333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>18.89602209489382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>126.9182872993606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.95742156328174</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.04243616700631</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>265.8002026072644</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>697885.5043846406</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26427,13 +26429,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26454,10 +26456,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-832389.9260083974</v>
       </c>
       <c r="C6" t="n">
+        <v>496354.8197191949</v>
+      </c>
+      <c r="D6" t="n">
         <v>496354.8197191948</v>
       </c>
-      <c r="D6" t="n">
-        <v>496354.819719195</v>
-      </c>
       <c r="E6" t="n">
-        <v>244712.9220633758</v>
+        <v>244712.9220633761</v>
       </c>
       <c r="F6" t="n">
+        <v>570125.383870731</v>
+      </c>
+      <c r="G6" t="n">
+        <v>570125.3838707312</v>
+      </c>
+      <c r="H6" t="n">
+        <v>570125.3838707311</v>
+      </c>
+      <c r="I6" t="n">
         <v>570125.3838707313</v>
       </c>
-      <c r="G6" t="n">
-        <v>570125.3838707313</v>
-      </c>
-      <c r="H6" t="n">
-        <v>570125.3838707313</v>
-      </c>
-      <c r="I6" t="n">
-        <v>570125.3838707312</v>
-      </c>
       <c r="J6" t="n">
-        <v>352594.1814734536</v>
+        <v>352594.1814734538</v>
       </c>
       <c r="K6" t="n">
-        <v>570125.383870731</v>
+        <v>570125.3838707311</v>
       </c>
       <c r="L6" t="n">
-        <v>570125.3838707312</v>
+        <v>570125.3838707316</v>
       </c>
       <c r="M6" t="n">
-        <v>485070.3559352193</v>
+        <v>485070.3559352192</v>
       </c>
       <c r="N6" t="n">
         <v>570125.3838707315</v>
       </c>
       <c r="O6" t="n">
+        <v>570125.3838707311</v>
+      </c>
+      <c r="P6" t="n">
         <v>570125.3838707313</v>
-      </c>
-      <c r="P6" t="n">
-        <v>570125.3838707315</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26799,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758551</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>291.7537355206665</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>71.23503558954133</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3459306702422</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>200.9546498970585</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923771</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>9.257938652213141</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>179.7382603152888</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>379.5512561295988</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>210.2882171080603</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>190.7684683149583</v>
+        <v>184.7196996605013</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28336,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167237</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32476,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>344.6306853939244</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,7 +33982,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,16 +34447,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>163.7852262023935</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>206.7892464195654</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2971777.927886525</v>
+        <v>2967765.317872531</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>77.9773651578025</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>96.42217904608241</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494225</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.0880274467719</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>215.2879627470497</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>233.9232825284303</v>
       </c>
       <c r="V5" t="n">
-        <v>177.2979137777578</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>149.3991884271815</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>2.379113942662977</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>334.8313968932907</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>67.41794366332667</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>206.7582264966179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>82.25298866282583</v>
       </c>
       <c r="C16" t="n">
-        <v>54.63637568893569</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>107.7122866515512</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>157.1838954824118</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>249.4570359212145</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.65182679923964</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>96.04906679049552</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487365</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.41782514683995</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>148.2350264383957</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.1420382222378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>265.56576948799</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.77673900139</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>391.8273445118554</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="5">
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,34 +4579,34 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V5" t="n">
-        <v>3146.517019813456</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X5" t="n">
         <v>2420.282606282261</v>
@@ -4637,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4652,16 +4652,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>310.0549803959803</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>310.0549803959803</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>310.0549803959803</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959803</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>217.4203875707506</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140705</v>
+        <v>1899.346003793995</v>
       </c>
       <c r="D8" t="n">
-        <v>936.970515533955</v>
+        <v>1541.080305187244</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1155.292052589</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>744.3061477993926</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.4537238215122</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>661.1021886517519</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>661.1021886517519</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>661.1021886517519</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>661.1021886517519</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928005</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167292</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072716</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>593.6115863900017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5712,13 +5712,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1656.010514870942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1366.593344833982</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.603793935964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,7 +6232,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,22 +6241,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6493,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1028.490320362745</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>859.5541374348384</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>709.4374980225026</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>561.5244044401095</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>414.6344569421991</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.931364336515</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1210.138785192985</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2409.167300603654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2226.312466258559</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2006.7110012815</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1717.635774625697</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1462.95128641981</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.53411638285</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>945.5445654848324</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>724.7519863413023</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,13 +7165,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532803</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2230.185029894889</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2010.58356491783</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1721.508338262028</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1721.508338262028</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1432.091168225067</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.30903818352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>139.234765840794</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1802.949169892209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.264681686322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1258.847511649361</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1030.857960751344</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>810.0653816078141</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>97.57899151911147</v>
       </c>
       <c r="C16" t="n">
-        <v>112.6104454096921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.72167599501793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>2.680607402613504</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96364621897271</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>69.47507150177333</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.95742156328174</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>32.79125956324884</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.04243616700631</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>20.61870490125415</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
@@ -26334,25 +26334,25 @@
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365058</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083974</v>
+        <v>-832389.9260083975</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191949</v>
+        <v>496354.8197191944</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191948</v>
+        <v>496354.8197191954</v>
       </c>
       <c r="E6" t="n">
-        <v>244712.9220633761</v>
+        <v>244365.5428090192</v>
       </c>
       <c r="F6" t="n">
-        <v>570125.383870731</v>
+        <v>569778.0046163743</v>
       </c>
       <c r="G6" t="n">
-        <v>570125.3838707312</v>
+        <v>569778.0046163743</v>
       </c>
       <c r="H6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.0046163741</v>
       </c>
       <c r="I6" t="n">
-        <v>570125.3838707313</v>
+        <v>569778.0046163743</v>
       </c>
       <c r="J6" t="n">
-        <v>352594.1814734538</v>
+        <v>352246.802219097</v>
       </c>
       <c r="K6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.0046163743</v>
       </c>
       <c r="L6" t="n">
-        <v>570125.3838707316</v>
+        <v>569778.0046163741</v>
       </c>
       <c r="M6" t="n">
-        <v>485070.3559352192</v>
+        <v>484722.9766808623</v>
       </c>
       <c r="N6" t="n">
-        <v>570125.3838707315</v>
+        <v>569778.0046163741</v>
       </c>
       <c r="O6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.0046163744</v>
       </c>
       <c r="P6" t="n">
-        <v>570125.3838707313</v>
+        <v>569778.0046163744</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>291.7537355206665</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>289.8157596099712</v>
       </c>
     </row>
     <row r="3">
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.756905814749189e-12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351654</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>71.23503558954133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>17.07188943047166</v>
       </c>
       <c r="V5" t="n">
-        <v>150.4543446923771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>17.84763267144632</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>179.7382603152888</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>379.5512561295988</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>76.09032876016272</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>184.7196996605013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>297.7596336167237</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,10 +33654,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>183.7183104822601</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>163.7852262023935</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>45.87687150790109</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2967765.317872531</v>
+        <v>2969525.848175316</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8557641.841275437</v>
+        <v>8557641.841275435</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>96.42217904608307</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.42217904608241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494225</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.0880274467719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>233.9232825284303</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>318.4070179429959</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>149.3991884271815</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>334.8313968932907</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>78.78083674902071</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386362</v>
+        <v>203.7029035467953</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695362</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.25298866282583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>65.78783178799263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>113.3174219124918</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>147.6895341487365</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>265.56576948799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686089</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181842</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2773.051261552376</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2773.051261552376</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2420.282606282261</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.4203875707506</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4761,16 +4761,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>438.2129667142807</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.4203875707506</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2268.308520734407</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.346003793995</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1541.080305187244</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.292052589</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3061477993926</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,43 +5020,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,55 +5275,55 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,43 +5743,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5901,13 +5901,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6493,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6840,22 +6840,22 @@
         <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7077,16 +7077,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7362,10 +7362,10 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.5811134804959</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>615.644930552589</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1415.011708352283</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.022157454266</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>966.2295783107356</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.57899151911147</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>138.8202214113361</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.925938869475857</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
@@ -26337,25 +26337,25 @@
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.041504981262263e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26438,7 +26438,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083975</v>
+        <v>-832389.9260083976</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191944</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191954</v>
+        <v>496354.8197191948</v>
       </c>
       <c r="E6" t="n">
-        <v>244365.5428090192</v>
+        <v>244678.1841379403</v>
       </c>
       <c r="F6" t="n">
-        <v>569778.0046163743</v>
+        <v>570090.6459452952</v>
       </c>
       <c r="G6" t="n">
-        <v>569778.0046163743</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="H6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="I6" t="n">
-        <v>569778.0046163743</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="J6" t="n">
-        <v>352246.802219097</v>
+        <v>352559.4435480179</v>
       </c>
       <c r="K6" t="n">
-        <v>569778.0046163743</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="L6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452952</v>
       </c>
       <c r="M6" t="n">
-        <v>484722.9766808623</v>
+        <v>485035.6180097837</v>
       </c>
       <c r="N6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="O6" t="n">
-        <v>569778.0046163744</v>
+        <v>570090.6459452958</v>
       </c>
       <c r="P6" t="n">
-        <v>569778.0046163744</v>
+        <v>570090.6459452956</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>285.5081910261787</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>289.8157596099712</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.756905814749189e-12</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351654</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>17.07188943047166</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>67.83092071305771</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>17.84763267144632</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>76.09032876016272</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>270.4601319683923</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282312</v>
+        <v>14.88174980529945</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>248.0319961154043</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33654,10 +33654,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
